--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="500">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Hn-basis-Appointment</t>
+    <t>hn-basis-appointment</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-24T20:45:39+02:00</t>
+    <t>2023-07-24T23:46:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -183,10 +183,15 @@
 </t>
   </si>
   <si>
-    <t>Information about use of metadata in FHIR resources in helsenorge: &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/743014401/Meta+informasjon+som+kan+benyttes+for+alle+FHIR+ressurser&gt;. Se list of metadata taht is to be used in context of an appointment:&lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning#Appointment%3A-Metadata&gt;</t>
-  </si>
-  <si>
-    <t>Information about use of metadata in FHIR resources in helsenorge: &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/743014401/Meta+informasjon+som+kan+benyttes+for+alle+FHIR+ressurser&gt;. Se list of metadata taht is to be used in context of an appointment:&lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning#Appointment%3A-Metadata&gt;. /n suppressNotification: Use for suppressing notification /n reminder: Used to define if reminders is active. /n hasAppointmentDetail: Tels if there is more information available regarding the appointment. If used Helsenorge will try to get the details. CommunicationPart must support that the detailse can be pulled. /n supportPatientDialog: Patient dialog supported /n and childParentRestrictons: setting posible restriction if parents are to get information about the appointment or only the child.</t>
+    <t>Information about use of metadata in FHIR resources in helsenorge:</t>
+  </si>
+  <si>
+    <t>Information about use of metadata in FHIR resources in helsenorge: &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/743014401/Meta+informasjon+som+kan+benyttes+for+alle+FHIR+ressurser&gt;. Se list of metadata that is to be used in context of an appointment:&lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning#Appointment%3A-Metadata&gt;. 
+ suppressNotification: Use for suppressing notification 
+ reminder: Used to define if reminders is active. 
+ hasAppointmentDetail: Tels if there is more information available regarding the appointment. If used Helsenorge will try to get the details from communication part. CommunicationPart must support that the details can be pulled. 
+ supportPatientDialog: Patient dialog supported 
+ and childParentRestrictons: setting posible restriction if parents are to get information about the appointment or only the child.</t>
   </si>
   <si>
     <t>Resource.meta</t>
@@ -1055,6 +1060,10 @@
     <t>The brief description of the appointment as would be shown on a subject line in a meeting request, or appointment list. Detailed or expanded information should be put in the comment field.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+should-be-max-100-chars:Length SHOULD be &lt;=100. {$this.length() &lt;= 100}</t>
+  </si>
+  <si>
     <t>.text</t>
   </si>
   <si>
@@ -1071,7 +1080,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Spesial instructions for use. &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning&gt; </t>
+    <t>Spesial instructions for use.</t>
   </si>
   <si>
     <t xml:space="preserve">Spesial instructions for use: Se &lt;https://helsenorge.atlassian.net/wiki/spaces/HELSENORGE/pages/2052685825/Draft+-+Timenotifikasjon.+Ny+nasjonal+timel+sning&gt; SuportingInformation MUST at least refer to communication part (herid level 2) using Organization profile kommunikasjonspart-Organization (&lt;https://simplifier.net/hl7norwayno-basis/kommunikasjonspart-organization&gt;) </t>
@@ -1228,6 +1237,10 @@
   </si>
   <si>
     <t>While Appointment.comment contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+should-be-max-500-chars:Length SHOULD be &lt;= 500 {$this.length() &lt;= 500}</t>
   </si>
   <si>
     <t>DESCRIPTION (for patient use)</t>
@@ -9037,30 +9050,30 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>57</v>
+        <v>334</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9083,13 +9096,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9140,7 +9153,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9155,16 +9168,16 @@
         <v>57</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9172,10 +9185,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9198,13 +9211,13 @@
         <v>46</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9255,7 +9268,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9270,27 +9283,27 @@
         <v>57</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9313,13 +9326,13 @@
         <v>46</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9370,7 +9383,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9385,27 +9398,27 @@
         <v>57</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9428,13 +9441,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9485,7 +9498,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9500,13 +9513,13 @@
         <v>57</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -9517,10 +9530,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9543,13 +9556,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9600,7 +9613,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9618,7 +9631,7 @@
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
@@ -9632,10 +9645,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9658,16 +9671,16 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9717,7 +9730,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9732,13 +9745,13 @@
         <v>57</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>35</v>
@@ -9749,10 +9762,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9778,13 +9791,13 @@
         <v>145</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9834,7 +9847,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9849,27 +9862,27 @@
         <v>57</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9895,10 +9908,10 @@
         <v>145</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9949,7 +9962,7 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9961,34 +9974,34 @@
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>57</v>
+        <v>391</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10007,13 +10020,13 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10064,7 +10077,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10079,10 +10092,10 @@
         <v>57</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
@@ -10096,10 +10109,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10122,13 +10135,13 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10179,7 +10192,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>45</v>
@@ -10191,30 +10204,30 @@
         <v>35</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10326,10 +10339,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10443,14 +10456,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10472,10 +10485,10 @@
         <v>90</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>132</v>
@@ -10530,7 +10543,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10562,10 +10575,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10591,13 +10604,13 @@
         <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10626,10 +10639,10 @@
         <v>171</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>35</v>
@@ -10647,7 +10660,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10665,7 +10678,7 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>149</v>
@@ -10674,15 +10687,15 @@
         <v>35</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10794,10 +10807,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10911,10 +10924,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11030,10 +11043,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11145,10 +11158,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11262,10 +11275,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11291,16 +11304,16 @@
         <v>59</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>35</v>
@@ -11349,7 +11362,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -11367,7 +11380,7 @@
         <v>35</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>35</v>
@@ -11376,15 +11389,15 @@
         <v>35</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11410,13 +11423,13 @@
         <v>145</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11466,7 +11479,7 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11484,7 +11497,7 @@
         <v>35</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>35</v>
@@ -11493,15 +11506,15 @@
         <v>35</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11527,14 +11540,14 @@
         <v>65</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>35</v>
@@ -11583,7 +11596,7 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11601,7 +11614,7 @@
         <v>35</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
@@ -11610,15 +11623,15 @@
         <v>35</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11644,14 +11657,14 @@
         <v>145</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>35</v>
@@ -11700,7 +11713,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -11718,7 +11731,7 @@
         <v>35</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>35</v>
@@ -11727,15 +11740,15 @@
         <v>35</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11758,19 +11771,19 @@
         <v>46</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>35</v>
@@ -11819,7 +11832,7 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -11837,7 +11850,7 @@
         <v>35</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>35</v>
@@ -11846,15 +11859,15 @@
         <v>35</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11970,10 +11983,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11996,13 +12009,13 @@
         <v>46</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12053,7 +12066,7 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -12071,24 +12084,24 @@
         <v>35</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12114,10 +12127,10 @@
         <v>65</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12147,10 +12160,10 @@
         <v>160</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>35</v>
@@ -12168,7 +12181,7 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
@@ -12186,10 +12199,10 @@
         <v>35</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>35</v>
@@ -12200,10 +12213,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12229,10 +12242,10 @@
         <v>65</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12262,10 +12275,10 @@
         <v>160</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>35</v>
@@ -12283,7 +12296,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>45</v>
@@ -12301,24 +12314,24 @@
         <v>35</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12344,10 +12357,10 @@
         <v>194</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12398,7 +12411,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -12430,10 +12443,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12459,13 +12472,13 @@
         <v>194</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12515,7 +12528,7 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
@@ -12530,10 +12543,10 @@
         <v>57</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>35</v>
@@ -12542,7 +12555,7 @@
         <v>35</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-appointment</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-Appointment</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -337,7 +337,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -357,7 +357,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -373,7 +373,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
@@ -389,7 +389,7 @@
     <t>recurring</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-Recurring}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-Recurring}
 </t>
   </si>
   <si>
@@ -405,7 +405,7 @@
     <t>postponementReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-postponementreason}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-postponementreason}
 </t>
   </si>
   <si>
@@ -421,7 +421,7 @@
     <t>consultationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-consultationType}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-consultationType}
 </t>
   </si>
   <si>
@@ -795,7 +795,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
     <t>n/a, might be inferred from the ServiceDeliveryLocation</t>
@@ -888,7 +888,7 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-AppointmentType-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
   </si>
   <si>
     <t>.code</t>
@@ -1925,7 +1925,7 @@
     <col min="23" max="23" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="11.4921875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>46</v>
@@ -7257,7 +7257,7 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>161</v>
+        <v>70</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
@@ -10127,7 +10127,7 @@
         <v>46</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-20T09:32:23+02:00</t>
+    <t>2023-09-25T00:16:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3388" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="502">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:44:07+02:00</t>
+    <t>2023-10-05T16:09:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -888,31 +888,34 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
+    <t>http://terminology.hl7.org/ValueSet/v2-0276</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>ARQ-7</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.id</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.extension</t>
+  </si>
+  <si>
+    <t>Appointment.appointmentType.coding</t>
+  </si>
+  <si>
+    <t>Mandatory valueset for hn-basis-Appointment.</t>
+  </si>
+  <si>
+    <t>Mandatory valueset.</t>
+  </si>
+  <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
-  </si>
-  <si>
-    <t>.code</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
-  </si>
-  <si>
-    <t>ARQ-7</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.id</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.extension</t>
-  </si>
-  <si>
-    <t>Appointment.appointmentType.coding</t>
-  </si>
-  <si>
-    <t>Recomended code systems for no-basis-Appointment.</t>
-  </si>
-  <si>
-    <t>Recomended code systems for n-basis-Appointment. The reconmended code systems might not be suficient for defining appointment type and in an implemented profile - some other coding might be needed.</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -3705,10 +3708,10 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>35</v>
@@ -7209,7 +7212,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>46</v>
@@ -7554,10 +7557,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -7606,19 +7609,17 @@
         <v>35</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
@@ -7660,13 +7661,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>35</v>
@@ -7676,7 +7677,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7691,10 +7692,10 @@
         <v>227</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>230</v>
@@ -7728,10 +7729,10 @@
         <v>161</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>35</v>
@@ -7781,13 +7782,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>35</v>
@@ -7797,7 +7798,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7812,10 +7813,10 @@
         <v>227</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>230</v>
@@ -7849,10 +7850,10 @@
         <v>161</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>35</v>
@@ -7902,13 +7903,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>284</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>35</v>
@@ -7918,7 +7919,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -7933,10 +7934,10 @@
         <v>227</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>230</v>
@@ -7970,10 +7971,10 @@
         <v>161</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -8023,10 +8024,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8142,10 +8143,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8171,10 +8172,10 @@
         <v>167</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8204,10 +8205,10 @@
         <v>70</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -8225,7 +8226,7 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8240,10 +8241,10 @@
         <v>58</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>35</v>
@@ -8252,15 +8253,15 @@
         <v>35</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8372,10 +8373,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8489,10 +8490,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8608,10 +8609,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8727,10 +8728,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8753,13 +8754,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8810,7 +8811,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8825,10 +8826,10 @@
         <v>58</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>35</v>
@@ -8842,10 +8843,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8868,16 +8869,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8927,7 +8928,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8942,27 +8943,27 @@
         <v>58</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>270</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8988,10 +8989,10 @@
         <v>146</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9042,7 +9043,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9054,30 +9055,30 @@
         <v>35</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9100,13 +9101,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9157,7 +9158,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9172,16 +9173,16 @@
         <v>58</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9189,10 +9190,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9215,13 +9216,13 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9272,7 +9273,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9287,27 +9288,27 @@
         <v>58</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9330,13 +9331,13 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9387,7 +9388,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9402,27 +9403,27 @@
         <v>58</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9445,13 +9446,13 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9502,7 +9503,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9517,13 +9518,13 @@
         <v>58</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -9534,10 +9535,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9560,13 +9561,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9617,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9635,7 +9636,7 @@
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
@@ -9649,10 +9650,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9675,16 +9676,16 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9734,7 +9735,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9749,13 +9750,13 @@
         <v>58</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>35</v>
@@ -9766,10 +9767,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9795,13 +9796,13 @@
         <v>146</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9851,7 +9852,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9866,27 +9867,27 @@
         <v>58</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9912,10 +9913,10 @@
         <v>146</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9966,7 +9967,7 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9978,34 +9979,34 @@
         <v>35</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10024,13 +10025,13 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10081,7 +10082,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10096,10 +10097,10 @@
         <v>58</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
@@ -10113,10 +10114,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10139,13 +10140,13 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10196,7 +10197,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>46</v>
@@ -10208,30 +10209,30 @@
         <v>35</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10343,10 +10344,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10460,14 +10461,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10489,10 +10490,10 @@
         <v>91</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>133</v>
@@ -10547,7 +10548,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10579,10 +10580,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10608,13 +10609,13 @@
         <v>167</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10643,10 +10644,10 @@
         <v>172</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>35</v>
@@ -10664,7 +10665,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10682,7 +10683,7 @@
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>150</v>
@@ -10691,15 +10692,15 @@
         <v>35</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10811,10 +10812,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10928,10 +10929,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11047,10 +11048,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11162,10 +11163,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11279,10 +11280,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11308,16 +11309,16 @@
         <v>60</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O81" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>35</v>
@@ -11366,7 +11367,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -11384,7 +11385,7 @@
         <v>35</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>35</v>
@@ -11393,15 +11394,15 @@
         <v>35</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11427,13 +11428,13 @@
         <v>146</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11483,7 +11484,7 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>36</v>
@@ -11501,7 +11502,7 @@
         <v>35</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>35</v>
@@ -11510,15 +11511,15 @@
         <v>35</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11544,14 +11545,14 @@
         <v>66</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>35</v>
@@ -11600,7 +11601,7 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11618,7 +11619,7 @@
         <v>35</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
@@ -11627,15 +11628,15 @@
         <v>35</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11661,14 +11662,14 @@
         <v>146</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>35</v>
@@ -11717,7 +11718,7 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
@@ -11735,7 +11736,7 @@
         <v>35</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>35</v>
@@ -11744,15 +11745,15 @@
         <v>35</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11775,19 +11776,19 @@
         <v>47</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>35</v>
@@ -11836,7 +11837,7 @@
         <v>35</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>36</v>
@@ -11854,7 +11855,7 @@
         <v>35</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>35</v>
@@ -11863,15 +11864,15 @@
         <v>35</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11987,10 +11988,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12013,13 +12014,13 @@
         <v>47</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -12070,7 +12071,7 @@
         <v>35</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>36</v>
@@ -12088,24 +12089,24 @@
         <v>35</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12131,10 +12132,10 @@
         <v>66</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12164,10 +12165,10 @@
         <v>161</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>35</v>
@@ -12185,7 +12186,7 @@
         <v>35</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>36</v>
@@ -12203,10 +12204,10 @@
         <v>35</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>35</v>
@@ -12217,10 +12218,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12246,10 +12247,10 @@
         <v>66</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12279,10 +12280,10 @@
         <v>161</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>35</v>
@@ -12300,7 +12301,7 @@
         <v>35</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>46</v>
@@ -12318,24 +12319,24 @@
         <v>35</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12361,10 +12362,10 @@
         <v>195</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12415,7 +12416,7 @@
         <v>35</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>36</v>
@@ -12447,10 +12448,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12476,13 +12477,13 @@
         <v>195</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12532,7 +12533,7 @@
         <v>35</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>36</v>
@@ -12547,10 +12548,10 @@
         <v>58</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>35</v>
@@ -12559,7 +12560,7 @@
         <v>35</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T00:03:21+02:00</t>
+    <t>2023-10-12T00:15:11+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:15:11+02:00</t>
+    <t>2023-10-12T00:46:45+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$84</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3387" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3151" uniqueCount="473">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T00:46:45+02:00</t>
+    <t>2023-11-08T00:53:28+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment</t>
+    <t>http://hl7.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -142,8 +142,8 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
-    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
-app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -201,10 +201,17 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>Appointment.implicitRules</t>
   </si>
   <si>
@@ -224,6 +231,9 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>Appointment.language</t>
   </si>
   <si>
@@ -301,26 +311,33 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Appointment.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
   </si>
   <si>
@@ -337,30 +354,26 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Virtual Service </t>
+    <t>Virtual Service</t>
   </si>
   <si>
     <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
+    <t>Appointment.extension:group</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
-    <t>Appointment.extension:group</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-group}
-</t>
-  </si>
-  <si>
     <t>no-basis-group</t>
   </si>
   <si>
@@ -373,7 +386,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
@@ -434,10 +447,6 @@
     <t>Appointment.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -445,9 +454,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -498,19 +504,10 @@
     <t>Element.id</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Appointment.identifier.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -644,9 +641,17 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
     <t>Identifier.period</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
@@ -656,7 +661,7 @@
     <t>Appointment.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|http://hl7.no/fhir/StructureDefinition/no-basis-Organization)
 </t>
   </si>
   <si>
@@ -670,6 +675,10 @@
   </si>
   <si>
     <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
@@ -721,7 +730,16 @@
     <t>Volven 8445 is a preferred code system but other code systems as Volven 9179 can also be used</t>
   </si>
   <si>
+    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
+  </si>
+  <si>
     <t>urn:oid:2.16.578.1.12.4.1.1.8445</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>Appointment.cancelationReason.id</t>
@@ -753,7 +771,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-4:If code is used in a codable consept the system and description must be used {code &gt; '' implies (system &gt; '' and display &gt; '')}</t>
+inv-4:If code is used in a codable consept the system must be used {code &gt; '' implies (system &gt; '' )}</t>
   </si>
   <si>
     <t>union(., ./translation)</t>
@@ -909,10 +927,10 @@
     <t>Appointment.appointmentType.coding</t>
   </si>
   <si>
-    <t>Mandatory valueset for hn-basis-Appointment.</t>
-  </si>
-  <si>
-    <t>Mandatory valueset.</t>
+    <t>Mandatory valueset for hn-basis-Appointment is HnAppointmentAppointmentTypeVS</t>
+  </si>
+  <si>
+    <t>Mandatory valueset is HnAppointmentAppointmentTypeVS</t>
   </si>
   <si>
     <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
@@ -1020,6 +1038,9 @@
   </si>
   <si>
     <t>Reason the appointment has been scheduled to take place, as specified using information from another resource. When the patient arrives and the encounter begins it may be used as the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
+  </si>
+  <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1067,6 +1088,9 @@
     <t>The brief description of the appointment as would be shown on a subject line in a meeting request, or appointment list. Detailed or expanded information should be put in the comment field.</t>
   </si>
   <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 should-be-max-100-chars:Length SHOULD be &lt;=100. {$this.length() &lt;= 100}</t>
   </si>
@@ -1118,6 +1142,9 @@
     <t>Date/Time that the appointment is to take place.</t>
   </si>
   <si>
+    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
+  </si>
+  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1165,6 +1192,9 @@
   </si>
   <si>
     <t>Number of minutes that the appointment is to take. This can be less than the duration between the start and end times.  For example, where the actual time of appointment is only an estimate or if a 30 minute appointment is being requested, but any time would work.  Also, if there is, for example, a planned 15 minute break in the middle of a long appointment, the duration may be 15 minutes less than the difference between the start and end.</t>
+  </si>
+  <si>
+    <t>32 bit number; for values larger than this, use decimal</t>
   </si>
   <si>
     <t>.activityTime[@xsi:type = ('SXPR_TS', 'PIVL_TS')].width</t>
@@ -1289,8 +1319,8 @@
     <t>List of participants involved in the appointment.</t>
   </si>
   <si>
-    <t>app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}appointment-participant-actor-patient-reference-identifier:When actor is a Patient logical reference MUST be used {actor.type = 'Patient' implies actor.identifier.exists()}appointment-participant-actor-patient-reference-reference:When actor is a Patient Literal reference, Relative, internal or absolute URL MUST not be used {(actor.type = 'Patient') implies actor.reference.exists().not()}</t>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}appointment-participant-actor-patient-reference-identifier:When actor is a Patient logical reference MUST be used {actor.type = 'Patient' implies actor.identifier.exists()}appointment-participant-actor-patient-reference-reference:When actor is a Patient literal reference (relative, internal or absolute) reference MUST not be used {(actor.type = 'Patient') implies actor.reference.exists().not()}</t>
   </si>
   <si>
     <t>Request.performer, Request.subject</t>
@@ -1365,137 +1395,16 @@
     <t>Appointment.participant.type.coding</t>
   </si>
   <si>
-    <t>Appointment.participant.type.coding.id</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.extension</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
+    <t>Appointment.participant.type.text</t>
+  </si>
+  <si>
+    <t>Appointment.participant.actor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole|Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson|Device|HealthcareService)
 </t>
   </si>
   <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
-  </si>
-  <si>
-    <t>Appointment.participant.type.text</t>
-  </si>
-  <si>
-    <t>Appointment.participant.actor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Device|HealthcareService|Location)
-</t>
-  </si>
-  <si>
     <t>When actor is a Patient logical reference MUST be used</t>
   </si>
   <si>
@@ -1566,6 +1475,12 @@
   </si>
   <si>
     <t>Participation period of the actor.</t>
+  </si>
+  <si>
+    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
+  </si>
+  <si>
+    <t>DR</t>
   </si>
   <si>
     <t>Appointment.requestedPeriod</t>
@@ -1896,7 +1811,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO91"/>
+  <dimension ref="A1:AO84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1906,7 +1821,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.10546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="20.78125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="6" max="6" width="2.15234375" customWidth="true" bestFit="true"/>
@@ -1914,7 +1829,7 @@
     <col min="8" max="8" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.109375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="91.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2272,16 +2187,16 @@
         <v>46</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM3" t="s" s="2">
         <v>35</v>
@@ -2295,10 +2210,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2321,16 +2236,16 @@
         <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2380,7 +2295,7 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
@@ -2389,16 +2304,16 @@
         <v>46</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>35</v>
@@ -2412,10 +2327,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2438,16 +2353,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2473,13 +2388,13 @@
         <v>35</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>35</v>
@@ -2497,7 +2412,7 @@
         <v>35</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2506,16 +2421,16 @@
         <v>46</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>35</v>
@@ -2529,14 +2444,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2555,16 +2470,16 @@
         <v>35</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2614,7 +2529,7 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
@@ -2623,16 +2538,16 @@
         <v>46</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>35</v>
@@ -2646,21 +2561,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -2672,16 +2587,16 @@
         <v>35</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2731,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
@@ -2749,7 +2664,7 @@
         <v>35</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>35</v>
@@ -2763,14 +2678,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2789,15 +2704,17 @@
         <v>35</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="N8" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="N8" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>35</v>
@@ -2834,17 +2751,19 @@
         <v>35</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AC8" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="AD8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
@@ -2853,16 +2772,16 @@
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>35</v>
@@ -2876,16 +2795,16 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2904,15 +2823,17 @@
         <v>35</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>35</v>
@@ -2961,7 +2882,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -2970,16 +2891,16 @@
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>35</v>
@@ -2993,16 +2914,16 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3021,15 +2942,17 @@
         <v>35</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N10" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N10" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>35</v>
@@ -3078,7 +3001,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3087,16 +3010,16 @@
         <v>37</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>35</v>
@@ -3110,16 +3033,16 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3138,15 +3061,17 @@
         <v>35</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>35</v>
@@ -3195,7 +3120,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3204,16 +3129,16 @@
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>35</v>
@@ -3227,13 +3152,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>35</v>
@@ -3255,13 +3180,13 @@
         <v>35</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3312,7 +3237,7 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
@@ -3321,10 +3246,10 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3344,13 +3269,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>35</v>
@@ -3372,13 +3297,13 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3429,7 +3354,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
@@ -3438,10 +3363,10 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3461,13 +3386,13 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>35</v>
@@ -3489,13 +3414,13 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3546,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
@@ -3555,10 +3480,10 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -3578,14 +3503,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3604,19 +3529,19 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>35</v>
@@ -3653,19 +3578,19 @@
         <v>35</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -3674,16 +3599,16 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>35</v>
@@ -3697,10 +3622,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3723,13 +3648,13 @@
         <v>47</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -3780,7 +3705,7 @@
         <v>35</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -3789,33 +3714,33 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3838,13 +3763,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3895,7 +3820,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -3913,7 +3838,7 @@
         <v>35</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>35</v>
@@ -3927,14 +3852,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3953,16 +3878,16 @@
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M18" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4000,19 +3925,19 @@
         <v>35</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC18" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4021,16 +3946,16 @@
         <v>37</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>35</v>
@@ -4044,10 +3969,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4070,19 +3995,19 @@
         <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4107,31 +4032,31 @@
         <v>35</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
@@ -4140,16 +4065,16 @@
         <v>46</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>35</v>
@@ -4158,15 +4083,15 @@
         <v>35</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4189,19 +4114,19 @@
         <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>35</v>
@@ -4226,31 +4151,31 @@
         <v>35</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4259,16 +4184,16 @@
         <v>46</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>35</v>
@@ -4277,15 +4202,15 @@
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4293,7 +4218,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>46</v>
@@ -4308,19 +4233,19 @@
         <v>47</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>180</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>35</v>
@@ -4333,43 +4258,43 @@
         <v>35</v>
       </c>
       <c r="T21" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF21" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4378,33 +4303,33 @@
         <v>46</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL21" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO21" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>185</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4427,16 +4352,16 @@
         <v>47</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4450,43 +4375,43 @@
         <v>35</v>
       </c>
       <c r="T22" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>36</v>
@@ -4495,33 +4420,33 @@
         <v>46</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL22" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AM22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AM22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4544,15 +4469,17 @@
         <v>47</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>35</v>
@@ -4610,16 +4537,16 @@
         <v>46</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>35</v>
@@ -4628,15 +4555,15 @@
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4644,7 +4571,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>46</v>
@@ -4659,16 +4586,16 @@
         <v>47</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4718,7 +4645,7 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
@@ -4727,16 +4654,16 @@
         <v>46</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>35</v>
@@ -4745,15 +4672,15 @@
         <v>35</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4776,16 +4703,16 @@
         <v>47</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4811,13 +4738,13 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>35</v>
@@ -4835,7 +4762,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>46</v>
@@ -4844,33 +4771,33 @@
         <v>46</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4893,15 +4820,17 @@
         <v>47</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>35</v>
@@ -4926,11 +4855,11 @@
         <v>35</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>35</v>
@@ -4948,7 +4877,7 @@
         <v>35</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>36</v>
@@ -4957,16 +4886,16 @@
         <v>46</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>35</v>
@@ -4975,15 +4904,15 @@
         <v>35</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5006,13 +4935,13 @@
         <v>35</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5063,7 +4992,7 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
@@ -5081,7 +5010,7 @@
         <v>35</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>35</v>
@@ -5095,14 +5024,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5121,16 +5050,16 @@
         <v>35</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M28" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5168,19 +5097,19 @@
         <v>35</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC28" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5189,16 +5118,16 @@
         <v>37</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>35</v>
@@ -5212,10 +5141,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5238,19 +5167,19 @@
         <v>47</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>35</v>
@@ -5299,7 +5228,7 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
@@ -5308,16 +5237,16 @@
         <v>37</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>35</v>
@@ -5326,15 +5255,15 @@
         <v>35</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5357,19 +5286,19 @@
         <v>47</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>35</v>
@@ -5418,7 +5347,7 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
@@ -5427,16 +5356,16 @@
         <v>46</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>35</v>
@@ -5445,15 +5374,15 @@
         <v>35</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5476,15 +5405,17 @@
         <v>47</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>35</v>
@@ -5509,11 +5440,11 @@
         <v>35</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>35</v>
@@ -5531,7 +5462,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -5540,33 +5471,33 @@
         <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5589,13 +5520,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5646,7 +5577,7 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
@@ -5664,7 +5595,7 @@
         <v>35</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>35</v>
@@ -5678,14 +5609,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5704,16 +5635,16 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5751,19 +5682,19 @@
         <v>35</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC33" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -5772,16 +5703,16 @@
         <v>37</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>35</v>
@@ -5795,10 +5726,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5821,19 +5752,19 @@
         <v>47</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -5882,7 +5813,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -5891,16 +5822,16 @@
         <v>37</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>35</v>
@@ -5909,15 +5840,15 @@
         <v>35</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5940,19 +5871,19 @@
         <v>47</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>35</v>
@@ -6001,7 +5932,7 @@
         <v>35</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>36</v>
@@ -6010,16 +5941,16 @@
         <v>46</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>35</v>
@@ -6028,15 +5959,15 @@
         <v>35</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6059,16 +5990,16 @@
         <v>47</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6094,29 +6025,29 @@
         <v>35</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>36</v>
@@ -6125,16 +6056,16 @@
         <v>37</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>35</v>
@@ -6143,15 +6074,15 @@
         <v>35</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6174,13 +6105,13 @@
         <v>35</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6231,7 +6162,7 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
@@ -6249,7 +6180,7 @@
         <v>35</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>35</v>
@@ -6263,14 +6194,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6289,16 +6220,16 @@
         <v>35</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6336,19 +6267,19 @@
         <v>35</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC38" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF38" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -6357,16 +6288,16 @@
         <v>37</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>35</v>
@@ -6380,10 +6311,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6406,19 +6337,19 @@
         <v>47</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>35</v>
@@ -6467,7 +6398,7 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>36</v>
@@ -6476,16 +6407,16 @@
         <v>37</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>35</v>
@@ -6494,15 +6425,15 @@
         <v>35</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6525,19 +6456,19 @@
         <v>47</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>35</v>
@@ -6586,7 +6517,7 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
@@ -6595,16 +6526,16 @@
         <v>46</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>35</v>
@@ -6613,15 +6544,15 @@
         <v>35</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6644,15 +6575,17 @@
         <v>47</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>35</v>
@@ -6677,11 +6610,11 @@
         <v>35</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y41" s="2"/>
       <c r="Z41" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>35</v>
@@ -6699,7 +6632,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -6708,33 +6641,33 @@
         <v>37</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>35</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6757,13 +6690,13 @@
         <v>35</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6814,7 +6747,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -6832,7 +6765,7 @@
         <v>35</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>35</v>
@@ -6846,14 +6779,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6872,16 +6805,16 @@
         <v>35</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M43" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6919,19 +6852,19 @@
         <v>35</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>36</v>
@@ -6940,16 +6873,16 @@
         <v>37</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>35</v>
@@ -6963,10 +6896,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6989,19 +6922,19 @@
         <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>35</v>
@@ -7050,7 +6983,7 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
@@ -7059,16 +6992,16 @@
         <v>37</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>35</v>
@@ -7077,15 +7010,15 @@
         <v>35</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7108,19 +7041,19 @@
         <v>47</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>35</v>
@@ -7169,7 +7102,7 @@
         <v>35</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7178,16 +7111,16 @@
         <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>35</v>
@@ -7196,15 +7129,15 @@
         <v>35</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7227,15 +7160,17 @@
         <v>47</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -7260,11 +7195,11 @@
         <v>35</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>35</v>
@@ -7282,7 +7217,7 @@
         <v>35</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>36</v>
@@ -7291,33 +7226,33 @@
         <v>46</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7340,13 +7275,13 @@
         <v>35</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7397,7 +7332,7 @@
         <v>35</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>36</v>
@@ -7415,7 +7350,7 @@
         <v>35</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>35</v>
@@ -7429,14 +7364,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7455,16 +7390,16 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7502,19 +7437,19 @@
         <v>35</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC48" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
@@ -7523,16 +7458,16 @@
         <v>37</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>35</v>
@@ -7546,10 +7481,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7572,19 +7507,19 @@
         <v>47</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -7609,27 +7544,27 @@
         <v>35</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC49" s="2"/>
       <c r="AD49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>36</v>
@@ -7638,16 +7573,16 @@
         <v>37</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>35</v>
@@ -7656,18 +7591,18 @@
         <v>35</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="B50" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="B50" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="C50" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>35</v>
@@ -7677,7 +7612,7 @@
         <v>36</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -7689,19 +7624,19 @@
         <v>47</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -7726,13 +7661,13 @@
         <v>35</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>35</v>
@@ -7750,7 +7685,7 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
@@ -7759,16 +7694,16 @@
         <v>37</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>35</v>
@@ -7777,18 +7712,18 @@
         <v>35</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>35</v>
@@ -7798,7 +7733,7 @@
         <v>36</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -7810,19 +7745,19 @@
         <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -7847,13 +7782,13 @@
         <v>35</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>35</v>
@@ -7871,7 +7806,7 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
@@ -7880,16 +7815,16 @@
         <v>37</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>35</v>
@@ -7898,18 +7833,18 @@
         <v>35</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>35</v>
@@ -7919,7 +7854,7 @@
         <v>36</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -7931,19 +7866,19 @@
         <v>47</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -7968,13 +7903,13 @@
         <v>35</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>35</v>
@@ -7992,7 +7927,7 @@
         <v>35</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>36</v>
@@ -8001,16 +7936,16 @@
         <v>37</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>35</v>
@@ -8019,15 +7954,15 @@
         <v>35</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8050,19 +7985,19 @@
         <v>47</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -8111,7 +8046,7 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
@@ -8120,16 +8055,16 @@
         <v>46</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>35</v>
@@ -8138,15 +8073,15 @@
         <v>35</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8169,15 +8104,17 @@
         <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>35</v>
@@ -8202,13 +8139,13 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>35</v>
@@ -8226,7 +8163,7 @@
         <v>35</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>36</v>
@@ -8235,16 +8172,16 @@
         <v>37</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>35</v>
@@ -8253,15 +8190,15 @@
         <v>35</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8284,13 +8221,13 @@
         <v>35</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8341,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>36</v>
@@ -8359,7 +8296,7 @@
         <v>35</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>35</v>
@@ -8373,14 +8310,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8399,16 +8336,16 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8446,19 +8383,19 @@
         <v>35</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC56" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF56" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
@@ -8467,16 +8404,16 @@
         <v>37</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>35</v>
@@ -8490,10 +8427,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8516,19 +8453,19 @@
         <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>35</v>
@@ -8577,7 +8514,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -8586,16 +8523,16 @@
         <v>37</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>35</v>
@@ -8604,15 +8541,15 @@
         <v>35</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8635,19 +8572,19 @@
         <v>47</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -8696,7 +8633,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -8705,16 +8642,16 @@
         <v>46</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>35</v>
@@ -8723,15 +8660,15 @@
         <v>35</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8754,15 +8691,17 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>35</v>
@@ -8811,7 +8750,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -8820,16 +8759,16 @@
         <v>37</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>35</v>
@@ -8843,10 +8782,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8869,16 +8808,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8928,7 +8867,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -8937,33 +8876,33 @@
         <v>46</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8986,15 +8925,17 @@
         <v>35</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>35</v>
@@ -9043,7 +8984,7 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>36</v>
@@ -9052,33 +8993,33 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9101,15 +9042,17 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>350</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>35</v>
@@ -9158,7 +9101,7 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
@@ -9167,22 +9110,22 @@
         <v>37</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>35</v>
@@ -9190,10 +9133,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9216,15 +9159,17 @@
         <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>358</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>359</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>35</v>
@@ -9273,7 +9218,7 @@
         <v>35</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -9282,33 +9227,33 @@
         <v>46</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9331,15 +9276,17 @@
         <v>47</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="M64" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="N64" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>35</v>
@@ -9388,7 +9335,7 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>36</v>
@@ -9397,33 +9344,33 @@
         <v>46</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9446,15 +9393,17 @@
         <v>35</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
@@ -9503,7 +9452,7 @@
         <v>35</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>36</v>
@@ -9512,19 +9461,19 @@
         <v>46</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>35</v>
@@ -9535,10 +9484,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9561,15 +9510,17 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>35</v>
@@ -9618,7 +9569,7 @@
         <v>35</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>36</v>
@@ -9627,16 +9578,16 @@
         <v>37</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>35</v>
@@ -9650,10 +9601,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9676,16 +9627,16 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9735,7 +9686,7 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>375</v>
+        <v>384</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
@@ -9744,19 +9695,19 @@
         <v>46</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>35</v>
@@ -9767,10 +9718,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9793,16 +9744,16 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>384</v>
+        <v>393</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9852,7 +9803,7 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
@@ -9861,33 +9812,33 @@
         <v>46</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9910,15 +9861,17 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>35</v>
@@ -9967,7 +9920,7 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
@@ -9976,37 +9929,37 @@
         <v>46</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10025,15 +9978,17 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>327</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>35</v>
@@ -10082,7 +10037,7 @@
         <v>35</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -10091,16 +10046,16 @@
         <v>37</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>58</v>
+        <v>208</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>35</v>
@@ -10114,10 +10069,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10140,13 +10095,13 @@
         <v>35</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10197,7 +10152,7 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>46</v>
@@ -10206,33 +10161,33 @@
         <v>37</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>411</v>
+        <v>420</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10255,13 +10210,13 @@
         <v>35</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10312,7 +10267,7 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
@@ -10330,7 +10285,7 @@
         <v>35</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>35</v>
@@ -10344,14 +10299,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10370,16 +10325,16 @@
         <v>35</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10417,19 +10372,19 @@
         <v>35</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
@@ -10438,16 +10393,16 @@
         <v>37</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>35</v>
@@ -10461,14 +10416,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>413</v>
+        <v>422</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>414</v>
+        <v>423</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10487,19 +10442,19 @@
         <v>47</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>35</v>
@@ -10548,7 +10503,7 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
@@ -10557,16 +10512,16 @@
         <v>37</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>35</v>
@@ -10580,10 +10535,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10591,10 +10546,10 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>35</v>
@@ -10606,16 +10561,16 @@
         <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>420</v>
+        <v>429</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>421</v>
+        <v>430</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10641,13 +10596,13 @@
         <v>35</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>35</v>
@@ -10665,7 +10620,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -10674,33 +10629,33 @@
         <v>37</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10723,13 +10678,13 @@
         <v>35</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10780,7 +10735,7 @@
         <v>35</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>36</v>
@@ -10798,7 +10753,7 @@
         <v>35</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>35</v>
@@ -10812,14 +10767,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10838,16 +10793,16 @@
         <v>35</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>153</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>133</v>
+        <v>97</v>
       </c>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
@@ -10885,19 +10840,19 @@
         <v>35</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AC77" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>36</v>
@@ -10906,16 +10861,16 @@
         <v>37</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>35</v>
@@ -10929,10 +10884,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10940,7 +10895,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>37</v>
@@ -10955,19 +10910,19 @@
         <v>47</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>35</v>
@@ -11016,7 +10971,7 @@
         <v>35</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>36</v>
@@ -11025,16 +10980,16 @@
         <v>37</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>35</v>
@@ -11043,15 +10998,15 @@
         <v>35</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11071,19 +11026,23 @@
         <v>35</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>35</v>
       </c>
@@ -11131,7 +11090,7 @@
         <v>35</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>149</v>
+        <v>246</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>36</v>
@@ -11140,16 +11099,16 @@
         <v>46</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>35</v>
@@ -11158,26 +11117,26 @@
         <v>35</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>35</v>
+        <v>248</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>130</v>
+        <v>35</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -11186,19 +11145,19 @@
         <v>35</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>91</v>
+        <v>440</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>152</v>
+        <v>441</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -11236,54 +11195,54 @@
         <v>35</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>154</v>
+        <v>35</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>155</v>
+        <v>439</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>97</v>
+        <v>208</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>150</v>
+        <v>443</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>35</v>
+        <v>444</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>35</v>
+        <v>445</v>
       </c>
       <c r="AO80" t="s" s="2">
-        <v>35</v>
+        <v>446</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>431</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11291,7 +11250,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>46</v>
@@ -11306,20 +11265,18 @@
         <v>47</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>35</v>
       </c>
@@ -11343,13 +11300,13 @@
         <v>35</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>35</v>
+        <v>451</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>35</v>
@@ -11367,7 +11324,7 @@
         <v>35</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>36</v>
@@ -11376,33 +11333,33 @@
         <v>46</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>35</v>
+        <v>453</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO81" t="s" s="2">
-        <v>438</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11410,7 +11367,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>46</v>
@@ -11425,16 +11382,16 @@
         <v>47</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>146</v>
+        <v>69</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11460,13 +11417,13 @@
         <v>35</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>35</v>
+        <v>457</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>35</v>
+        <v>458</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>35</v>
@@ -11484,42 +11441,42 @@
         <v>35</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>35</v>
+        <v>460</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>446</v>
+        <v>462</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11527,7 +11484,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>46</v>
@@ -11539,21 +11496,21 @@
         <v>35</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>447</v>
+        <v>463</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>35</v>
       </c>
@@ -11601,7 +11558,7 @@
         <v>35</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>36</v>
@@ -11610,16 +11567,16 @@
         <v>46</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>35</v>
@@ -11628,15 +11585,15 @@
         <v>35</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11644,10 +11601,10 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>35</v>
@@ -11656,21 +11613,21 @@
         <v>35</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>35</v>
       </c>
@@ -11718,25 +11675,25 @@
         <v>35</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>58</v>
+        <v>199</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>35</v>
+        <v>360</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>458</v>
+        <v>471</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>35</v>
@@ -11745,826 +11702,11 @@
         <v>35</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="85" hidden="true">
-      <c r="A85" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="B85" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="C85" s="2"/>
-      <c r="D85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E85" s="2"/>
-      <c r="F85" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="P85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN85" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="86" hidden="true">
-      <c r="A86" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="C86" s="2"/>
-      <c r="D86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E86" s="2"/>
-      <c r="F86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="P86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q86" s="2"/>
-      <c r="R86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN86" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C87" s="2"/>
-      <c r="D87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E87" s="2"/>
-      <c r="F87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="L87" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q87" s="2"/>
-      <c r="R87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>476</v>
-      </c>
-      <c r="AO87" t="s" s="2">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="88" hidden="true">
-      <c r="A88" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="B88" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="C88" s="2"/>
-      <c r="D88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E88" s="2"/>
-      <c r="F88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J88" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K88" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>480</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X88" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y88" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="Z88" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="AA88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM88" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AN88" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO88" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="89" hidden="true">
-      <c r="A89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="C89" s="2"/>
-      <c r="D89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E89" s="2"/>
-      <c r="F89" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G89" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J89" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="K89" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q89" s="2"/>
-      <c r="R89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y89" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="Z89" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AG89" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH89" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ89" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL89" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="AM89" t="s" s="2">
-        <v>491</v>
-      </c>
-      <c r="AN89" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO89" t="s" s="2">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="90" hidden="true">
-      <c r="A90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="B90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E90" s="2"/>
-      <c r="F90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K90" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L90" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q90" s="2"/>
-      <c r="R90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF90" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="AG90" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH90" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ90" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL90" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AM90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN90" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO90" t="s" s="2">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="91" hidden="true">
-      <c r="A91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="B91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C91" s="2"/>
-      <c r="D91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="E91" s="2"/>
-      <c r="F91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="G91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="I91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="J91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="K91" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="L91" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>498</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="O91" s="2"/>
-      <c r="P91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q91" s="2"/>
-      <c r="R91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF91" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="AG91" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ91" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AK91" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AL91" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="AM91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO91" t="s" s="2">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO91">
+  <autoFilter ref="A1:AO84">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12574,7 +11716,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI83">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T21:48:09+01:00</t>
+    <t>2023-11-27T12:35:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>37</v>
@@ -11194,7 +11194,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>35</v>
@@ -11315,7 +11315,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>35</v>
@@ -11436,7 +11436,7 @@
         <v>36</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>35</v>
@@ -11554,7 +11554,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>46</v>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -11072,7 +11072,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>37</v>
@@ -11554,13 +11554,13 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>46</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>35</v>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:31:30+01:00</t>
+    <t>2023-12-13T23:52:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T12:28:54+01:00</t>
+    <t>2023-12-21T10:30:52+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1608,7 +1608,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole|Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson|Device|HealthcareService)
+    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|http://helsenorge.no/fhir/StructureDefinition/no-basis-PractitionerRole|Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson|Device|HealthcareService)
 </t>
   </si>
   <si>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T10:30:52+01:00</t>
+    <t>2024-01-15T07:10:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,7 +143,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}contained-location-must-have-managingorganization:Contained location must have managing organization {Appointment.contained.where($this is Location).empty() or Appointment.contained.where($this is Location).all(managingOrganization.exists())}</t>
   </si>
   <si>
     <t>Request</t>
@@ -1303,7 +1303,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-should-be-max-100-chars:Length SHOULD be &lt;=100. {$this.length() &lt;= 100}</t>
+must-be-max-100-chars:Length MUST be &lt;=100. {$this.length() &lt;= 100}</t>
   </si>
   <si>
     <t>.text</t>
@@ -1484,7 +1484,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-should-be-max-500-chars:Length SHOULD be &lt;= 500 {$this.length() &lt;= 500}</t>
+must-be-max-500-chars:Length MUST be &lt;= 500 {$this.length() &lt;= 500}</t>
   </si>
   <si>
     <t>DESCRIPTION (for patient use)</t>
@@ -1608,7 +1608,7 @@
     <t>Appointment.participant.actor</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Patient|Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|PractitionerRole|http://helsenorge.no/fhir/StructureDefinition/no-basis-PractitionerRole|Location|http://hl7.no/fhir/StructureDefinition/no-basis-Location|RelatedPerson|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson|Device|HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Patient|http://hl7.no/fhir/StructureDefinition/no-basis-Practitioner|http://hl7.no/fhir/StructureDefinition/no-basis-PractitionerRole|http://hl7.no/fhir/StructureDefinition/no-basis-Location|http://hl7.no/fhir/StructureDefinition/no-basis-RelatedPerson|Device|http://hl7.no/fhir/StructureDefinition/no-basis-HealthcareService)
 </t>
   </si>
   <si>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T14:16:42+01:00</t>
+    <t>2024-06-01T10:49:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1552,7 +1552,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-must-be-max-100-chars:Length MUST be &lt;=1000. {$this.length() &lt;= 1000}</t>
+must-be-max-1000-chars:Length MUST be &lt;= 1000 {$this.length() &lt;= 1000}</t>
   </si>
   <si>
     <t>.text</t>
@@ -1726,10 +1726,6 @@
   </si>
   <si>
     <t>While Appointment.comment contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-must-be-max-500-chars:Length MUST be &lt;= 1000 {$this.length() &lt;= 1000}</t>
   </si>
   <si>
     <t>DESCRIPTION (for patient use)</t>
@@ -14946,7 +14942,7 @@
         <v>100</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>551</v>
+        <v>494</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>20</v>
@@ -14955,7 +14951,7 @@
         <v>546</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>20</v>
@@ -14966,14 +14962,14 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14992,13 +14988,13 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="L109" t="s" s="2">
+      <c r="M109" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="N109" t="s" s="2">
         <v>478</v>
@@ -15051,7 +15047,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15066,10 +15062,10 @@
         <v>358</v>
       </c>
       <c r="AK109" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>558</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>559</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>20</v>
@@ -15083,10 +15079,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15109,13 +15105,13 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>562</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15166,7 +15162,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>88</v>
@@ -15178,30 +15174,30 @@
         <v>100</v>
       </c>
       <c r="AJ110" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AK110" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="AK110" t="s" s="2">
+      <c r="AL110" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="AL110" t="s" s="2">
+      <c r="AM110" t="s" s="2">
         <v>566</v>
       </c>
-      <c r="AM110" t="s" s="2">
+      <c r="AN110" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO110" t="s" s="2">
         <v>567</v>
-      </c>
-      <c r="AN110" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO110" t="s" s="2">
-        <v>568</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15313,10 +15309,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15430,14 +15426,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15459,10 +15455,10 @@
         <v>111</v>
       </c>
       <c r="L113" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="N113" t="s" s="2">
         <v>114</v>
@@ -15517,7 +15513,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15549,10 +15545,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15578,13 +15574,13 @@
         <v>317</v>
       </c>
       <c r="L114" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M114" t="s" s="2">
         <v>577</v>
       </c>
-      <c r="M114" t="s" s="2">
+      <c r="N114" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="N114" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15613,11 +15609,11 @@
         <v>148</v>
       </c>
       <c r="Y114" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="Z114" t="s" s="2">
         <v>580</v>
       </c>
-      <c r="Z114" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="AA114" t="s" s="2">
         <v>20</v>
       </c>
@@ -15634,7 +15630,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15652,7 +15648,7 @@
         <v>20</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>108</v>
@@ -15661,15 +15657,15 @@
         <v>20</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15781,10 +15777,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15898,10 +15894,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -16017,10 +16013,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16136,10 +16132,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16162,13 +16158,13 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>589</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>590</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>591</v>
       </c>
       <c r="N119" t="s" s="2">
         <v>478</v>
@@ -16221,7 +16217,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -16239,24 +16235,24 @@
         <v>20</v>
       </c>
       <c r="AL119" t="s" s="2">
+        <v>591</v>
+      </c>
+      <c r="AM119" t="s" s="2">
         <v>592</v>
       </c>
-      <c r="AM119" t="s" s="2">
+      <c r="AN119" t="s" s="2">
         <v>593</v>
       </c>
-      <c r="AN119" t="s" s="2">
+      <c r="AO119" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AO119" t="s" s="2">
-        <v>595</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16282,10 +16278,10 @@
         <v>168</v>
       </c>
       <c r="L120" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>597</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>598</v>
       </c>
       <c r="N120" t="s" s="2">
         <v>493</v>
@@ -16317,11 +16313,11 @@
         <v>221</v>
       </c>
       <c r="Y120" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="Z120" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="Z120" t="s" s="2">
-        <v>600</v>
-      </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
       </c>
@@ -16338,7 +16334,7 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -16356,10 +16352,10 @@
         <v>20</v>
       </c>
       <c r="AL120" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="AM120" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="AM120" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>20</v>
@@ -16370,10 +16366,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16399,10 +16395,10 @@
         <v>168</v>
       </c>
       <c r="L121" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>604</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>605</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>493</v>
@@ -16434,11 +16430,11 @@
         <v>221</v>
       </c>
       <c r="Y121" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="Z121" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="Z121" t="s" s="2">
-        <v>607</v>
-      </c>
       <c r="AA121" t="s" s="2">
         <v>20</v>
       </c>
@@ -16455,7 +16451,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>88</v>
@@ -16473,24 +16469,24 @@
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="AM121" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="AM121" t="s" s="2">
+      <c r="AN121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO121" t="s" s="2">
         <v>609</v>
-      </c>
-      <c r="AN121" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO121" t="s" s="2">
-        <v>610</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16516,10 +16512,10 @@
         <v>344</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>612</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>613</v>
       </c>
       <c r="N122" t="s" s="2">
         <v>347</v>
@@ -16572,7 +16568,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16590,24 +16586,24 @@
         <v>20</v>
       </c>
       <c r="AL122" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN122" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO122" t="s" s="2">
         <v>614</v>
-      </c>
-      <c r="AM122" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN122" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO122" t="s" s="2">
-        <v>615</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16633,13 +16629,13 @@
         <v>344</v>
       </c>
       <c r="L123" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M123" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>618</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>619</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16689,7 +16685,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16707,16 +16703,16 @@
         <v>510</v>
       </c>
       <c r="AL123" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN123" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO123" t="s" s="2">
         <v>620</v>
-      </c>
-      <c r="AM123" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN123" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO123" t="s" s="2">
-        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,7 +422,7 @@
     <t>LastUpdated should always be present to show when the resource was created or changed</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -422,7 +422,7 @@
     <t>LastUpdated should always be present to show when the resource was created or changed</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
+    <t>This value is always populated. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-01T23:53:20+01:00</t>
+    <t>2025-02-15T12:00:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hn-basis-appointment.xlsx
+++ b/StructureDefinition-hn-basis-appointment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4591" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4559" uniqueCount="606">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-15T12:00:41+01:00</t>
+    <t>2025-06-05T14:31:57+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -268,8 +268,8 @@
     <t>A booking of a healthcare event among patient(s), practitioner(s), related person(s) and/or device(s) for a specific date/time. This may result in one or more Encounter(s).</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}app-4:Cancelation reason is only used for appointments that have been cancelled, or no-show {Appointment.cancelationReason.exists() implies (Appointment.status='no-show' or Appointment.status='cancelled')}app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-2:Either start and end are specified, or neither {start.exists() = end.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}contained-location-must-have-managingorganization:Contained location must have managing organization {Appointment.contained.where($this is Location).empty() or Appointment.contained.where($this is Location).all(managingOrganization.exists())}</t>
+    <t>app-2:Either start and end are specified, or neither {start.exists() = end.exists()}
+app-3:Only proposed or cancelled appointments can be missing start/end dates {(start.exists() and end.exists()) or (status in ('proposed' | 'cancelled' | 'waitlist'))}app-4:Cancelation reason is only used for appointments that have been cancelled, or noshow {Appointment.cancelationReason.exists() implies (Appointment.status='noshow' or Appointment.status='cancelled')}dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}cancelationReason-inv:Cancelation reason MUST be set when status=cancelled and serviceCategory=27 (that is Specialist Medical) {(status='canceled' and serviceCategory.coding.code='27') implies cancelationReason.exists()}contained-location-must-have-managingorganization:Contained location must have managing organization {Appointment.contained.where($this is Location).empty() or Appointment.contained.where($this is Location).all(managingOrganization.exists())}</t>
   </si>
   <si>
     <t>Request</t>
@@ -327,321 +327,318 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Appointment.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Appointment.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Appointment.meta.versionId</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>Appointment.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>LastUpdated should always be present</t>
+  </si>
+  <si>
+    <t>LastUpdated should always be present to show when the resource was created or changed</t>
+  </si>
+  <si>
+    <t>This value is always populated. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>Appointment.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>Appointment.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>Appointment.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>Appointment.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>Appointment.implicitRules</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Appointment.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Appointment.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Appointment.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Appointment.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Appointment.extension:virtualService</t>
+  </si>
+  <si>
+    <t>virtualService</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
+</t>
+  </si>
+  <si>
+    <t>Virtual Service</t>
+  </si>
+  <si>
+    <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Appointment.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Appointment.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Appointment.meta.versionId</t>
-  </si>
-  <si>
-    <t>Version specific identifier</t>
-  </si>
-  <si>
-    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
-  </si>
-  <si>
-    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t>Appointment.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>LastUpdated should always be present</t>
-  </si>
-  <si>
-    <t>LastUpdated should always be present to show when the resource was created or changed</t>
-  </si>
-  <si>
-    <t>This value is always populated. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>Appointment.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>Identifies where the resource comes from</t>
-  </si>
-  <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
-  </si>
-  <si>
-    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
-This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>Appointment.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>Profiles this resource claims to conform to</t>
-  </si>
-  <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
-  </si>
-  <si>
-    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>Appointment.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>Security Labels applied to this resource</t>
-  </si>
-  <si>
-    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
-  </si>
-  <si>
-    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
-  </si>
-  <si>
-    <t>Appointment.meta.tag</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource</t>
-  </si>
-  <si>
-    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
-  </si>
-  <si>
-    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>Appointment.implicitRules</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Appointment.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Appointment.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Appointment.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>Appointment.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Appointment.extension:virtualService</t>
-  </si>
-  <si>
-    <t>virtualService</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/no-basis-virtual-service}
-</t>
-  </si>
-  <si>
-    <t>Virtual Service</t>
-  </si>
-  <si>
-    <t>The VirtualService structure defines details of a virtual communication capability, such as a web conference call.</t>
-  </si>
-  <si>
     <t>Appointment.extension:virtualService.id</t>
   </si>
   <si>
@@ -658,12 +655,6 @@
   </si>
   <si>
     <t>channelType</t>
-  </si>
-  <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t>Appointment.extension:virtualService.extension:channelType.id</t>
@@ -1099,15 +1090,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -1135,10 +1118,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -1188,16 +1167,7 @@
     <t>Volven 8445 is a preferred code system but other code systems as Volven 9179 can also be used</t>
   </si>
   <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
-  </si>
-  <si>
     <t>urn:oid:2.16.578.1.12.4.1.1.8445</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE</t>
   </si>
   <si>
     <t>Appointment.cancelationReason.id</t>
@@ -1498,9 +1468,6 @@
   </si>
   <si>
     <t>Reason the appointment has been scheduled to take place, as specified using information from another resource. When the patient arrives and the encounter begins it may be used as the admission diagnosis. The indication will typically be a Condition (with other resources referenced in the evidence.detail), or a Procedure.</t>
-  </si>
-  <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1548,9 +1515,6 @@
     <t>The brief description of the appointment as would be shown on a subject line in a meeting request, or appointment list. Detailed or expanded information should be put in the comment field.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 must-be-max-1000-chars:Length MUST be &lt;= 1000 {$this.length() &lt;= 1000}</t>
   </si>
@@ -1598,9 +1562,6 @@
     <t>Date/Time that the appointment is to take place.</t>
   </si>
   <si>
-    <t>Note: This is intended for where precisely observed times are required, typically system logs etc., and not human-reported times - for them, see date and dateTime (which can be as precise as instant, but is not required to be) below. Time zone is always required</t>
-  </si>
-  <si>
     <t>Request.occurrence[x]</t>
   </si>
   <si>
@@ -1644,9 +1605,6 @@
   </si>
   <si>
     <t>Number of minutes that the appointment is to take. This can be less than the duration between the start and end times.  For example, where the actual time of appointment is only an estimate or if a 30 minute appointment is being requested, but any time would work.  Also, if there is, for example, a planned 15 minute break in the middle of a long appointment, the duration may be 15 minutes less than the difference between the start and end.</t>
-  </si>
-  <si>
-    <t>32 bit number; for values larger than this, use decimal</t>
   </si>
   <si>
     <t>.activityTime[@xsi:type = ('SXPR_TS', 'PIVL_TS')].width</t>
@@ -1767,8 +1725,8 @@
     <t>List of participants involved in the appointment.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}appointment-participant-actor-patient-reference-identifier:When actor is a Patient logical reference MUST be used {actor.type = 'Patient' implies actor.identifier.exists()}appointment-participant-actor-patient-reference-reference:When actor is a Patient literal reference (relative, internal or absolute) reference MUST not be used {(actor.type = 'Patient') implies actor.reference.exists().not()}</t>
+    <t>app-1:Either the type or actor on the participant SHALL be specified {type.exists() or actor.exists()}
+ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}appointment-participant-actor-patient-reference-identifier:When actor is a Patient logical reference MUST be used {actor.type = 'Patient' implies actor.identifier.exists()}appointment-participant-actor-patient-reference-reference:When actor is a Patient literal reference (relative, internal or absolute) reference MUST not be used {(actor.type = 'Patient') implies actor.reference.exists().not()}</t>
   </si>
   <si>
     <t>Request.performer, Request.subject</t>
@@ -1923,12 +1881,6 @@
   </si>
   <si>
     <t>Participation period of the actor.</t>
-  </si>
-  <si>
-    <t>IVL&lt;TS&gt;[lowClosed="true" and highClosed="true"] or URG&lt;TS&gt;[lowClosed="true" and highClosed="true"]</t>
-  </si>
-  <si>
-    <t>DR</t>
   </si>
   <si>
     <t>Appointment.requestedPeriod</t>
@@ -2769,16 +2721,16 @@
         <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM4" t="s" s="2">
         <v>20</v>
@@ -2792,10 +2744,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2818,13 +2770,13 @@
         <v>20</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2875,7 +2827,7 @@
         <v>20</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>78</v>
@@ -2893,7 +2845,7 @@
         <v>20</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>20</v>
@@ -2907,14 +2859,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2933,16 +2885,16 @@
         <v>20</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2980,19 +2932,19 @@
         <v>20</v>
       </c>
       <c r="AB6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC6" t="s" s="2">
+      <c r="AF6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>78</v>
@@ -3001,16 +2953,16 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>20</v>
@@ -3024,10 +2976,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3053,13 +3005,13 @@
         <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3109,7 +3061,7 @@
         <v>20</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>78</v>
@@ -3118,16 +3070,16 @@
         <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>20</v>
@@ -3141,10 +3093,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3167,16 +3119,16 @@
         <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3226,7 +3178,7 @@
         <v>20</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>78</v>
@@ -3235,16 +3187,16 @@
         <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ8" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK8" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>20</v>
@@ -3258,10 +3210,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3284,16 +3236,16 @@
         <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3343,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3352,16 +3304,16 @@
         <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ9" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK9" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>20</v>
@@ -3375,10 +3327,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3401,16 +3353,16 @@
         <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3460,7 +3412,7 @@
         <v>20</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -3469,16 +3421,16 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ10" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ10" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK10" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>20</v>
@@ -3492,10 +3444,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3518,16 +3470,16 @@
         <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3553,31 +3505,31 @@
         <v>20</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
@@ -3586,16 +3538,16 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK11" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>20</v>
@@ -3604,15 +3556,15 @@
         <v>20</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3635,16 +3587,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3670,13 +3622,13 @@
         <v>20</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>20</v>
@@ -3694,7 +3646,7 @@
         <v>20</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3703,16 +3655,16 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK12" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="AM12" t="s" s="2">
         <v>20</v>
@@ -3721,15 +3673,15 @@
         <v>20</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>153</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3752,16 +3704,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3811,7 +3763,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3820,16 +3772,16 @@
         <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>20</v>
@@ -3843,10 +3795,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3869,16 +3821,16 @@
         <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3904,13 +3856,13 @@
         <v>20</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3928,7 +3880,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3937,16 +3889,16 @@
         <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ14" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK14" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>20</v>
@@ -3960,14 +3912,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3986,16 +3938,16 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4045,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4054,16 +4006,16 @@
         <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ15" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>20</v>
@@ -4077,14 +4029,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4103,16 +4055,16 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4162,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4180,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>20</v>
@@ -4194,14 +4146,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4220,17 +4172,15 @@
         <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -4267,19 +4217,17 @@
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC17" s="2"/>
+      <c r="AD17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC17" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>117</v>
-      </c>
       <c r="AF17" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4288,16 +4236,16 @@
         <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>20</v>
@@ -4311,13 +4259,13 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>20</v>
@@ -4330,7 +4278,7 @@
         <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>20</v>
@@ -4339,13 +4287,13 @@
         <v>20</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4396,7 +4344,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -4405,16 +4353,16 @@
         <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>20</v>
@@ -4428,10 +4376,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4454,13 +4402,13 @@
         <v>20</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4511,7 +4459,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4529,7 +4477,7 @@
         <v>20</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>20</v>
@@ -4543,14 +4491,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4569,16 +4517,16 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4616,19 +4564,19 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC20" t="s" s="2">
+      <c r="AF20" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -4637,16 +4585,16 @@
         <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>20</v>
@@ -4660,13 +4608,13 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>20</v>
@@ -4688,13 +4636,13 @@
         <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4745,7 +4693,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4754,10 +4702,10 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>20</v>
@@ -4777,10 +4725,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4803,13 +4751,13 @@
         <v>20</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4860,7 +4808,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4878,7 +4826,7 @@
         <v>20</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>20</v>
@@ -4892,14 +4840,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4918,17 +4866,15 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4965,19 +4911,19 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4986,16 +4932,16 @@
         <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>20</v>
@@ -5009,10 +4955,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5035,16 +4981,16 @@
         <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5052,7 +4998,7 @@
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>20</v>
@@ -5094,7 +5040,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>88</v>
@@ -5112,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>20</v>
@@ -5126,10 +5072,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5152,13 +5098,13 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5185,11 +5131,11 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -5207,7 +5153,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5216,16 +5162,16 @@
         <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ25" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK25" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>20</v>
@@ -5239,16 +5185,16 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5267,17 +5213,15 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -5326,7 +5270,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5335,16 +5279,16 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>20</v>
@@ -5358,10 +5302,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5384,13 +5328,13 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L27" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5441,7 +5385,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -5459,7 +5403,7 @@
         <v>20</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>20</v>
@@ -5473,14 +5417,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5499,17 +5443,15 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5546,19 +5488,19 @@
         <v>20</v>
       </c>
       <c r="AB28" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC28" t="s" s="2">
+      <c r="AF28" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5567,16 +5509,16 @@
         <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>20</v>
@@ -5590,10 +5532,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5616,16 +5558,16 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5633,7 +5575,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>20</v>
@@ -5675,7 +5617,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>88</v>
@@ -5693,7 +5635,7 @@
         <v>20</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>20</v>
@@ -5707,10 +5649,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5733,13 +5675,13 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5790,7 +5732,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5799,16 +5741,16 @@
         <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>20</v>
@@ -5822,16 +5764,16 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5850,17 +5792,15 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>20</v>
@@ -5909,7 +5849,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5918,16 +5858,16 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>20</v>
@@ -5941,10 +5881,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5967,13 +5907,13 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6024,7 +5964,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -6042,7 +5982,7 @@
         <v>20</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>20</v>
@@ -6056,14 +5996,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6082,17 +6022,15 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6129,19 +6067,19 @@
         <v>20</v>
       </c>
       <c r="AB33" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE33" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC33" t="s" s="2">
+      <c r="AF33" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6150,16 +6088,16 @@
         <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>20</v>
@@ -6173,10 +6111,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6199,16 +6137,16 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6216,7 +6154,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>20</v>
@@ -6258,7 +6196,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>88</v>
@@ -6276,7 +6214,7 @@
         <v>20</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>20</v>
@@ -6290,10 +6228,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6316,13 +6254,13 @@
         <v>20</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6373,7 +6311,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6382,16 +6320,16 @@
         <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ35" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK35" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>20</v>
@@ -6405,16 +6343,16 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6433,17 +6371,15 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6492,7 +6428,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6501,16 +6437,16 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
@@ -6524,10 +6460,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6550,13 +6486,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6607,7 +6543,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6625,7 +6561,7 @@
         <v>20</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>20</v>
@@ -6639,14 +6575,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6665,17 +6601,15 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6712,19 +6646,19 @@
         <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC38" t="s" s="2">
+      <c r="AF38" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6733,16 +6667,16 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>20</v>
@@ -6756,10 +6690,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6782,16 +6716,16 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6799,7 +6733,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>20</v>
@@ -6841,7 +6775,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>88</v>
@@ -6859,7 +6793,7 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>20</v>
@@ -6873,10 +6807,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6899,13 +6833,13 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6956,7 +6890,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6965,16 +6899,16 @@
         <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ40" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK40" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>20</v>
@@ -6988,16 +6922,16 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7016,17 +6950,15 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>20</v>
@@ -7075,7 +7007,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7084,16 +7016,16 @@
         <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>20</v>
@@ -7107,10 +7039,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7133,13 +7065,13 @@
         <v>20</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7190,7 +7122,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7208,7 +7140,7 @@
         <v>20</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>20</v>
@@ -7222,14 +7154,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7248,17 +7180,15 @@
         <v>20</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7295,19 +7225,19 @@
         <v>20</v>
       </c>
       <c r="AB43" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7316,16 +7246,16 @@
         <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>20</v>
@@ -7339,10 +7269,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7365,16 +7295,16 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7382,7 +7312,7 @@
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>20</v>
@@ -7424,7 +7354,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -7442,7 +7372,7 @@
         <v>20</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>20</v>
@@ -7456,10 +7386,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7482,13 +7412,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7539,7 +7469,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7548,16 +7478,16 @@
         <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7571,10 +7501,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7597,16 +7527,16 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7614,7 +7544,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>20</v>
@@ -7656,7 +7586,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -7674,7 +7604,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7688,10 +7618,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7714,13 +7644,13 @@
         <v>20</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7771,7 +7701,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7780,16 +7710,16 @@
         <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ47" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
@@ -7803,16 +7733,16 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7822,7 +7752,7 @@
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
@@ -7831,17 +7761,15 @@
         <v>20</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7890,7 +7818,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7899,16 +7827,16 @@
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
@@ -7922,16 +7850,16 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7941,7 +7869,7 @@
         <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>20</v>
@@ -7950,17 +7878,15 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>114</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -8009,7 +7935,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8018,16 +7944,16 @@
         <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>20</v>
@@ -8041,13 +7967,13 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>20</v>
@@ -8069,13 +7995,13 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8126,7 +8052,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8135,10 +8061,10 @@
         <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>20</v>
@@ -8158,13 +8084,13 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>20</v>
@@ -8186,13 +8112,13 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8243,7 +8169,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8252,10 +8178,10 @@
         <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8275,13 +8201,13 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D52" t="s" s="2">
         <v>20</v>
@@ -8303,13 +8229,13 @@
         <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8360,7 +8286,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8369,10 +8295,10 @@
         <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>20</v>
@@ -8392,14 +8318,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8418,19 +8344,19 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8467,19 +8393,19 @@
         <v>20</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>116</v>
+        <v>20</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8488,16 +8414,16 @@
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
@@ -8511,10 +8437,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8537,13 +8463,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8594,7 +8520,7 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8603,33 +8529,33 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ54" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK54" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8652,13 +8578,13 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8709,7 +8635,7 @@
         <v>20</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8727,7 +8653,7 @@
         <v>20</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>20</v>
@@ -8741,14 +8667,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8767,16 +8693,16 @@
         <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8814,19 +8740,19 @@
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE56" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC56" t="s" s="2">
+      <c r="AF56" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8835,16 +8761,16 @@
         <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>20</v>
@@ -8858,10 +8784,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8884,19 +8810,19 @@
         <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="O57" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -8921,50 +8847,50 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>315</v>
-      </c>
       <c r="AM57" t="s" s="2">
         <v>20</v>
       </c>
@@ -8972,15 +8898,15 @@
         <v>20</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9003,19 +8929,19 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9040,66 +8966,66 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y58" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO58" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="Z58" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AA58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF58" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AG58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH58" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI58" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ58" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>325</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9122,19 +9048,19 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="O59" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9147,78 +9073,78 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="U59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF59" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AG59" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH59" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI59" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ59" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>334</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9241,16 +9167,16 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9264,78 +9190,78 @@
         <v>20</v>
       </c>
       <c r="T60" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="U60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF60" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>342</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9358,17 +9284,15 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9417,7 +9341,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9426,16 +9350,16 @@
         <v>88</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>20</v>
@@ -9444,15 +9368,15 @@
         <v>20</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9475,16 +9399,16 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9534,7 +9458,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9543,16 +9467,16 @@
         <v>88</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>20</v>
@@ -9561,15 +9485,15 @@
         <v>20</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9592,16 +9516,16 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9627,66 +9551,66 @@
         <v>20</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO63" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="Z63" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AA63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE63" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF63" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AG63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH63" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI63" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AJ63" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AK63" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>371</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9709,17 +9633,15 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9744,11 +9666,11 @@
         <v>20</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y64" s="2"/>
       <c r="Z64" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>20</v>
@@ -9766,7 +9688,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9775,16 +9697,16 @@
         <v>88</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>377</v>
+        <v>106</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>20</v>
@@ -9793,15 +9715,15 @@
         <v>20</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9824,13 +9746,13 @@
         <v>20</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9881,7 +9803,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9899,7 +9821,7 @@
         <v>20</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>20</v>
@@ -9913,14 +9835,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9939,16 +9861,16 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9986,19 +9908,19 @@
         <v>20</v>
       </c>
       <c r="AB66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE66" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC66" t="s" s="2">
+      <c r="AF66" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10007,16 +9929,16 @@
         <v>79</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
@@ -10030,10 +9952,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10056,19 +9978,19 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10117,7 +10039,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10126,16 +10048,16 @@
         <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
@@ -10144,15 +10066,15 @@
         <v>20</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10175,19 +10097,19 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10236,7 +10158,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10245,16 +10167,16 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
@@ -10263,15 +10185,15 @@
         <v>20</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10294,17 +10216,15 @@
         <v>89</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10329,11 +10249,11 @@
         <v>20</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>20</v>
@@ -10351,7 +10271,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10360,33 +10280,33 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ69" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10409,13 +10329,13 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -10466,7 +10386,7 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10484,7 +10404,7 @@
         <v>20</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -10498,14 +10418,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10524,16 +10444,16 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10571,19 +10491,19 @@
         <v>20</v>
       </c>
       <c r="AB71" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE71" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC71" t="s" s="2">
+      <c r="AF71" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10592,16 +10512,16 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>20</v>
@@ -10615,10 +10535,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10641,19 +10561,19 @@
         <v>89</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10702,7 +10622,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10711,16 +10631,16 @@
         <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>20</v>
@@ -10729,15 +10649,15 @@
         <v>20</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10760,19 +10680,19 @@
         <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10821,7 +10741,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10830,16 +10750,16 @@
         <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
@@ -10848,15 +10768,15 @@
         <v>20</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10879,16 +10799,16 @@
         <v>89</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10914,11 +10834,11 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Y74" s="2"/>
       <c r="Z74" t="s" s="2">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -10936,7 +10856,7 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10945,16 +10865,16 @@
         <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK74" t="s" s="2">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
@@ -10963,15 +10883,15 @@
         <v>20</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10994,13 +10914,13 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11051,7 +10971,7 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11069,7 +10989,7 @@
         <v>20</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
@@ -11083,14 +11003,14 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11109,16 +11029,16 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -11156,19 +11076,19 @@
         <v>20</v>
       </c>
       <c r="AB76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE76" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC76" t="s" s="2">
+      <c r="AF76" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -11177,16 +11097,16 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
@@ -11200,10 +11120,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11226,19 +11146,19 @@
         <v>89</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11287,7 +11207,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11296,16 +11216,16 @@
         <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
@@ -11314,15 +11234,15 @@
         <v>20</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11345,19 +11265,19 @@
         <v>89</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11406,7 +11326,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11415,16 +11335,16 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
@@ -11433,15 +11353,15 @@
         <v>20</v>
       </c>
       <c r="AO78" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11464,17 +11384,15 @@
         <v>89</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11499,11 +11417,11 @@
         <v>20</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11521,7 +11439,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11530,33 +11448,33 @@
         <v>79</v>
       </c>
       <c r="AI79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ79" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>378</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11579,13 +11497,13 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11636,7 +11554,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11654,7 +11572,7 @@
         <v>20</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11668,14 +11586,14 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
@@ -11694,16 +11612,16 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M81" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11741,19 +11659,19 @@
         <v>20</v>
       </c>
       <c r="AB81" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE81" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC81" t="s" s="2">
+      <c r="AF81" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11762,16 +11680,16 @@
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
@@ -11785,10 +11703,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11811,19 +11729,19 @@
         <v>89</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11872,7 +11790,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -11881,16 +11799,16 @@
         <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>20</v>
@@ -11899,15 +11817,15 @@
         <v>20</v>
       </c>
       <c r="AO82" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11930,19 +11848,19 @@
         <v>89</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -11991,7 +11909,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -12000,16 +11918,16 @@
         <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ83" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK83" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>20</v>
@@ -12018,15 +11936,15 @@
         <v>20</v>
       </c>
       <c r="AO83" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12049,17 +11967,15 @@
         <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12084,11 +12000,11 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y84" s="2"/>
       <c r="Z84" t="s" s="2">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12106,7 +12022,7 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12115,33 +12031,33 @@
         <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ84" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12164,13 +12080,13 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M85" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12221,7 +12137,7 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12239,7 +12155,7 @@
         <v>20</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
@@ -12253,14 +12169,14 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12279,16 +12195,16 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M86" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12326,19 +12242,19 @@
         <v>20</v>
       </c>
       <c r="AB86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE86" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC86" t="s" s="2">
+      <c r="AF86" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12347,16 +12263,16 @@
         <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
@@ -12370,10 +12286,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12396,19 +12312,19 @@
         <v>89</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12445,17 +12361,17 @@
         <v>20</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12464,16 +12380,16 @@
         <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
@@ -12482,18 +12398,18 @@
         <v>20</v>
       </c>
       <c r="AO87" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>20</v>
@@ -12515,19 +12431,19 @@
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12552,13 +12468,13 @@
         <v>20</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -12576,7 +12492,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -12585,16 +12501,16 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ88" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
@@ -12603,18 +12519,18 @@
         <v>20</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D89" t="s" s="2">
         <v>20</v>
@@ -12636,19 +12552,19 @@
         <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O89" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12673,13 +12589,13 @@
         <v>20</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>20</v>
@@ -12697,7 +12613,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -12706,16 +12622,16 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ89" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
@@ -12724,18 +12640,18 @@
         <v>20</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>20</v>
@@ -12757,19 +12673,19 @@
         <v>89</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O90" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12794,13 +12710,13 @@
         <v>20</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
@@ -12818,7 +12734,7 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -12827,16 +12743,16 @@
         <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ90" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>20</v>
@@ -12845,18 +12761,18 @@
         <v>20</v>
       </c>
       <c r="AO90" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>20</v>
@@ -12878,19 +12794,19 @@
         <v>89</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -12915,11 +12831,11 @@
         <v>20</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -12937,7 +12853,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12946,16 +12862,16 @@
         <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ91" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK91" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>20</v>
@@ -12964,15 +12880,15 @@
         <v>20</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12995,19 +12911,19 @@
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13056,7 +12972,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13065,16 +12981,16 @@
         <v>88</v>
       </c>
       <c r="AI92" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ92" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>20</v>
@@ -13083,15 +12999,15 @@
         <v>20</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13114,17 +13030,15 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13149,13 +13063,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13173,7 +13087,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13182,16 +13096,16 @@
         <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ93" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK93" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>20</v>
@@ -13200,15 +13114,15 @@
         <v>20</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13231,13 +13145,13 @@
         <v>20</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -13288,7 +13202,7 @@
         <v>20</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13306,7 +13220,7 @@
         <v>20</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>20</v>
@@ -13320,14 +13234,14 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
@@ -13346,16 +13260,16 @@
         <v>20</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M95" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
@@ -13393,19 +13307,19 @@
         <v>20</v>
       </c>
       <c r="AB95" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE95" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC95" t="s" s="2">
+      <c r="AF95" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13414,16 +13328,16 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>20</v>
@@ -13437,10 +13351,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13463,19 +13377,19 @@
         <v>89</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O96" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>20</v>
@@ -13524,7 +13438,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -13533,16 +13447,16 @@
         <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>20</v>
@@ -13551,15 +13465,15 @@
         <v>20</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13582,19 +13496,19 @@
         <v>89</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O97" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13643,7 +13557,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -13652,16 +13566,16 @@
         <v>88</v>
       </c>
       <c r="AI97" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ97" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK97" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>20</v>
@@ -13670,15 +13584,15 @@
         <v>20</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13701,17 +13615,15 @@
         <v>20</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -13760,7 +13672,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -13769,16 +13681,16 @@
         <v>79</v>
       </c>
       <c r="AI98" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ98" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK98" t="s" s="2">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="AM98" t="s" s="2">
         <v>20</v>
@@ -13792,10 +13704,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13818,16 +13730,16 @@
         <v>20</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>484</v>
+        <v>474</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13877,7 +13789,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -13886,33 +13798,33 @@
         <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ99" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK99" t="s" s="2">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AO99" t="s" s="2">
-        <v>489</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13935,17 +13847,15 @@
         <v>20</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -13994,7 +13904,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -14003,33 +13913,33 @@
         <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14052,17 +13962,15 @@
         <v>20</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>20</v>
@@ -14111,7 +14019,7 @@
         <v>20</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -14120,22 +14028,22 @@
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ101" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK101" t="s" s="2">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="AO101" t="s" s="2">
         <v>20</v>
@@ -14143,10 +14051,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14169,17 +14077,15 @@
         <v>89</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>20</v>
@@ -14228,7 +14134,7 @@
         <v>20</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14237,33 +14143,33 @@
         <v>88</v>
       </c>
       <c r="AI102" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ102" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK102" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>514</v>
+        <v>502</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14286,17 +14192,15 @@
         <v>89</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
         <v>20</v>
@@ -14345,7 +14249,7 @@
         <v>20</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>78</v>
@@ -14354,33 +14258,33 @@
         <v>88</v>
       </c>
       <c r="AI103" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ103" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK103" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>521</v>
+        <v>509</v>
       </c>
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14403,17 +14307,15 @@
         <v>20</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
         <v>20</v>
@@ -14462,7 +14364,7 @@
         <v>20</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14471,19 +14373,19 @@
         <v>88</v>
       </c>
       <c r="AI104" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ104" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK104" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>20</v>
@@ -14494,10 +14396,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14520,17 +14422,15 @@
         <v>20</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>529</v>
+        <v>516</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" t="s" s="2">
         <v>20</v>
@@ -14579,7 +14479,7 @@
         <v>20</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -14588,16 +14488,16 @@
         <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ105" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK105" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>532</v>
+        <v>519</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>20</v>
@@ -14611,10 +14511,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14637,16 +14537,16 @@
         <v>20</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" t="s" s="2">
@@ -14696,7 +14596,7 @@
         <v>20</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>533</v>
+        <v>520</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -14705,19 +14605,19 @@
         <v>88</v>
       </c>
       <c r="AI106" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ106" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK106" t="s" s="2">
-        <v>538</v>
+        <v>525</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>539</v>
+        <v>526</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>540</v>
+        <v>527</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>20</v>
@@ -14728,10 +14628,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14754,16 +14654,16 @@
         <v>20</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="O107" s="2"/>
       <c r="P107" t="s" s="2">
@@ -14813,7 +14713,7 @@
         <v>20</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -14822,33 +14722,33 @@
         <v>88</v>
       </c>
       <c r="AI107" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ107" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK107" t="s" s="2">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO107" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14871,17 +14771,15 @@
         <v>20</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>537</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
         <v>20</v>
@@ -14930,7 +14828,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>78</v>
@@ -14939,37 +14837,37 @@
         <v>88</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO108" t="s" s="2">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" t="s" s="2">
@@ -14988,17 +14886,15 @@
         <v>20</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -15047,7 +14943,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>78</v>
@@ -15056,16 +14952,16 @@
         <v>79</v>
       </c>
       <c r="AI109" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ109" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK109" t="s" s="2">
-        <v>557</v>
+        <v>544</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="AM109" t="s" s="2">
         <v>20</v>
@@ -15079,10 +14975,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15105,13 +15001,13 @@
         <v>20</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15162,7 +15058,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>88</v>
@@ -15171,33 +15067,33 @@
         <v>79</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="AL110" t="s" s="2">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO110" t="s" s="2">
-        <v>567</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15220,13 +15116,13 @@
         <v>20</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L111" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M111" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
@@ -15277,7 +15173,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>78</v>
@@ -15295,7 +15191,7 @@
         <v>20</v>
       </c>
       <c r="AL111" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM111" t="s" s="2">
         <v>20</v>
@@ -15309,14 +15205,14 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" t="s" s="2">
@@ -15335,16 +15231,16 @@
         <v>20</v>
       </c>
       <c r="K112" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L112" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M112" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L112" t="s" s="2">
+      <c r="N112" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N112" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O112" s="2"/>
       <c r="P112" t="s" s="2">
@@ -15382,19 +15278,19 @@
         <v>20</v>
       </c>
       <c r="AB112" t="s" s="2">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="AC112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE112" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF112" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -15403,16 +15299,16 @@
         <v>79</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK112" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM112" t="s" s="2">
         <v>20</v>
@@ -15426,14 +15322,14 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" t="s" s="2">
@@ -15452,19 +15348,19 @@
         <v>89</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P113" t="s" s="2">
         <v>20</v>
@@ -15513,7 +15409,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>78</v>
@@ -15522,16 +15418,16 @@
         <v>79</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>20</v>
@@ -15545,10 +15441,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15571,16 +15467,16 @@
         <v>89</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>577</v>
+        <v>564</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>578</v>
+        <v>565</v>
       </c>
       <c r="O114" s="2"/>
       <c r="P114" t="s" s="2">
@@ -15606,13 +15502,13 @@
         <v>20</v>
       </c>
       <c r="X114" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Y114" t="s" s="2">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="Z114" t="s" s="2">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="AA114" t="s" s="2">
         <v>20</v>
@@ -15630,7 +15526,7 @@
         <v>20</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>575</v>
+        <v>562</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -15639,33 +15535,33 @@
         <v>79</v>
       </c>
       <c r="AI114" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ114" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO114" t="s" s="2">
-        <v>582</v>
+        <v>569</v>
       </c>
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15688,13 +15584,13 @@
         <v>20</v>
       </c>
       <c r="K115" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M115" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M115" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
@@ -15745,7 +15641,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>78</v>
@@ -15763,7 +15659,7 @@
         <v>20</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AM115" t="s" s="2">
         <v>20</v>
@@ -15777,14 +15673,14 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E116" s="2"/>
       <c r="F116" t="s" s="2">
@@ -15803,16 +15699,16 @@
         <v>20</v>
       </c>
       <c r="K116" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="M116" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="L116" t="s" s="2">
+      <c r="N116" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="M116" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N116" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="O116" s="2"/>
       <c r="P116" t="s" s="2">
@@ -15850,19 +15746,19 @@
         <v>20</v>
       </c>
       <c r="AB116" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE116" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AC116" t="s" s="2">
+      <c r="AF116" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>78</v>
@@ -15871,16 +15767,16 @@
         <v>79</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AK116" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AM116" t="s" s="2">
         <v>20</v>
@@ -15894,10 +15790,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15920,19 +15816,19 @@
         <v>89</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
@@ -15981,7 +15877,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>78</v>
@@ -15990,16 +15886,16 @@
         <v>79</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="AK117" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="AM117" t="s" s="2">
         <v>20</v>
@@ -16008,15 +15904,15 @@
         <v>20</v>
       </c>
       <c r="AO117" t="s" s="2">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16039,19 +15935,19 @@
         <v>89</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="O118" t="s" s="2">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -16100,7 +15996,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>78</v>
@@ -16109,16 +16005,16 @@
         <v>88</v>
       </c>
       <c r="AI118" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ118" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK118" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL118" t="s" s="2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="AM118" t="s" s="2">
         <v>20</v>
@@ -16127,15 +16023,15 @@
         <v>20</v>
       </c>
       <c r="AO118" t="s" s="2">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16158,17 +16054,15 @@
         <v>89</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>577</v>
+      </c>
+      <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" t="s" s="2">
         <v>20</v>
@@ -16217,7 +16111,7 @@
         <v>20</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -16226,33 +16120,33 @@
         <v>88</v>
       </c>
       <c r="AI119" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ119" t="s" s="2">
-        <v>358</v>
-      </c>
       <c r="AK119" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL119" t="s" s="2">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="AN119" t="s" s="2">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="AO119" t="s" s="2">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16275,17 +16169,15 @@
         <v>89</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
         <v>20</v>
@@ -16310,13 +16202,13 @@
         <v>20</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="Z120" t="s" s="2">
-        <v>599</v>
+        <v>586</v>
       </c>
       <c r="AA120" t="s" s="2">
         <v>20</v>
@@ -16334,7 +16226,7 @@
         <v>20</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>78</v>
@@ -16343,19 +16235,19 @@
         <v>88</v>
       </c>
       <c r="AI120" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ120" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK120" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>20</v>
@@ -16366,10 +16258,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16392,17 +16284,15 @@
         <v>89</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>603</v>
+        <v>590</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>493</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
         <v>20</v>
@@ -16427,13 +16317,13 @@
         <v>20</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="Z121" t="s" s="2">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="AA121" t="s" s="2">
         <v>20</v>
@@ -16451,7 +16341,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>602</v>
+        <v>589</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>88</v>
@@ -16460,33 +16350,33 @@
         <v>88</v>
       </c>
       <c r="AI121" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ121" t="s" s="2">
-        <v>101</v>
-      </c>
       <c r="AK121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>607</v>
+        <v>594</v>
       </c>
       <c r="AM121" t="s" s="2">
-        <v>608</v>
+        <v>595</v>
       </c>
       <c r="AN121" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AO121" t="s" s="2">
-        <v>609</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16509,17 +16399,15 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="N122" t="s" s="2">
-        <v>347</v>
-      </c>
+        <v>599</v>
+      </c>
+      <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -16568,7 +16456,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>78</v>
@@ -16577,16 +16465,16 @@
         <v>88</v>
       </c>
       <c r="AI122" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ122" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AK122" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>613</v>
+        <v>106</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>20</v>
@@ -16595,15 +16483,15 @@
         <v>20</v>
       </c>
       <c r="AO122" t="s" s="2">
-        <v>614</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16626,16 +16514,16 @@
         <v>20</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>616</v>
+        <v>601</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>617</v>
+        <v>602</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>618</v>
+        <v>603</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16685,7 +16573,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>615</v>
+        <v>600</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>78</v>
@@ -16694,16 +16582,16 @@
         <v>79</v>
       </c>
       <c r="AI123" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ123" t="s" s="2">
-        <v>349</v>
-      </c>
       <c r="AK123" t="s" s="2">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="AL123" t="s" s="2">
-        <v>619</v>
+        <v>604</v>
       </c>
       <c r="AM123" t="s" s="2">
         <v>20</v>
@@ -16712,7 +16600,7 @@
         <v>20</v>
       </c>
       <c r="AO123" t="s" s="2">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
